--- a/data/trans_orig/CLASESOCIAL_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_R-Clase-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Clase social de la persona entrevistada en País Vasco</t>
+          <t>Clase social de la persona entrevistada en País Vasco (tasa de respuesta: 97,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6353,7 +6353,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Clase social de la persona entrevistada en Andalucia</t>
+          <t>Clase social de la persona entrevistada en Andalucia (tasa de respuesta: 98,49%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -12160,7 +12160,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Clase social de la persona entrevistada en C.Valenciana</t>
+          <t>Clase social de la persona entrevistada en C.Valenciana (tasa de respuesta: 82,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -17967,7 +17967,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Clase social de la persona entrevistada en Barcelona</t>
+          <t>Clase social de la persona entrevistada en Barcelona (tasa de respuesta: 99,43%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CLASESOCIAL_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_R-Clase-trans_orig.xlsx
@@ -1301,7 +1301,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>146177</t>
+          <t>163247</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>143204</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>289381</t>
+          <t>332106</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
@@ -1414,17 +1414,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>146177</t>
+          <t>163247</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>146177</t>
+          <t>163247</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>146177</t>
+          <t>163247</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1449,17 +1449,17 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>143204</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>143204</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>143204</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1484,17 +1484,17 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>289381</t>
+          <t>332106</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>289381</t>
+          <t>332106</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>289381</t>
+          <t>332106</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>109504</t>
+          <t>122956</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>190676</t>
+          <t>213381</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
@@ -2209,17 +2209,17 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2244,17 +2244,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>109504</t>
+          <t>122956</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>109504</t>
+          <t>122956</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>109504</t>
+          <t>122956</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -2279,17 +2279,17 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>190676</t>
+          <t>213381</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>190676</t>
+          <t>213381</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>190676</t>
+          <t>213381</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>164021</t>
+          <t>154094</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2700,7 +2700,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>63489</t>
+          <t>62155</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
@@ -2735,7 +2735,7 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>227510</t>
+          <t>216249</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
@@ -3004,17 +3004,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>164021</t>
+          <t>154094</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>164021</t>
+          <t>154094</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>164021</t>
+          <t>154094</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3039,17 +3039,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>63489</t>
+          <t>62155</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>63489</t>
+          <t>62155</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>63489</t>
+          <t>62155</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3074,17 +3074,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>227510</t>
+          <t>216249</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>227510</t>
+          <t>216249</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>227510</t>
+          <t>216249</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3347,7 +3347,7 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>170965</t>
+          <t>171536</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -3382,7 +3382,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>178836</t>
+          <t>184027</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>349801</t>
+          <t>355563</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
@@ -3799,17 +3799,17 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>170965</t>
+          <t>171536</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>170965</t>
+          <t>171536</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>170965</t>
+          <t>171536</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3834,17 +3834,17 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>178836</t>
+          <t>184027</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>178836</t>
+          <t>184027</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>178836</t>
+          <t>184027</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3869,17 +3869,17 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>349801</t>
+          <t>355563</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>349801</t>
+          <t>355563</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>349801</t>
+          <t>355563</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>76955</t>
+          <t>74738</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
@@ -4064,7 +4064,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
@@ -4099,7 +4099,7 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>209886</t>
+          <t>200154</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
@@ -4594,17 +4594,17 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>76955</t>
+          <t>74738</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>76955</t>
+          <t>74738</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>76955</t>
+          <t>74738</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -4629,17 +4629,17 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -4664,17 +4664,17 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>209886</t>
+          <t>200154</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>209886</t>
+          <t>200154</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>209886</t>
+          <t>200154</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>45862</t>
+          <t>56389</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
@@ -4746,7 +4746,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>118862</t>
+          <t>123672</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>164724</t>
+          <t>180061</t>
         </is>
       </c>
       <c r="S39" s="2" t="inlineStr">
@@ -5389,17 +5389,17 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>45862</t>
+          <t>56389</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>45862</t>
+          <t>56389</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>45862</t>
+          <t>56389</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
@@ -5424,17 +5424,17 @@
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>118862</t>
+          <t>123672</t>
         </is>
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>118862</t>
+          <t>123672</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
         <is>
-          <t>118862</t>
+          <t>123672</t>
         </is>
       </c>
       <c r="N45" s="2" t="inlineStr">
@@ -5459,17 +5459,17 @@
       </c>
       <c r="R45" s="2" t="inlineStr">
         <is>
-          <t>164724</t>
+          <t>180061</t>
         </is>
       </c>
       <c r="S45" s="2" t="inlineStr">
         <is>
-          <t>164724</t>
+          <t>180061</t>
         </is>
       </c>
       <c r="T45" s="2" t="inlineStr">
         <is>
-          <t>164724</t>
+          <t>180061</t>
         </is>
       </c>
       <c r="U45" s="2" t="inlineStr">
@@ -5506,32 +5506,32 @@
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>45862</t>
+          <t>56389</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>39993</t>
+          <t>49162</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>51680</t>
+          <t>63938</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="J46" s="2" t="inlineStr">
@@ -5541,32 +5541,32 @@
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>118862</t>
+          <t>123672</t>
         </is>
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>110085</t>
+          <t>114942</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>127724</t>
+          <t>133026</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
         <is>
-          <t>15,92%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="O46" s="2" t="inlineStr">
         <is>
-          <t>14,74%</t>
+          <t>14,6%</t>
         </is>
       </c>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>17,1%</t>
+          <t>16,9%</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
@@ -5576,32 +5576,32 @@
       </c>
       <c r="R46" s="2" t="inlineStr">
         <is>
-          <t>164724</t>
+          <t>180061</t>
         </is>
       </c>
       <c r="S46" s="2" t="inlineStr">
         <is>
-          <t>153962</t>
+          <t>169148</t>
         </is>
       </c>
       <c r="T46" s="2" t="inlineStr">
         <is>
-          <t>175930</t>
+          <t>192821</t>
         </is>
       </c>
       <c r="U46" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>12,02%</t>
         </is>
       </c>
       <c r="V46" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="W46" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>12,88%</t>
         </is>
       </c>
     </row>
@@ -5619,32 +5619,32 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>76954</t>
+          <t>74738</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>69986</t>
+          <t>68197</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>85407</t>
+          <t>82559</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="J47" s="2" t="inlineStr">
@@ -5654,32 +5654,32 @@
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>123705</t>
+          <t>116762</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>142618</t>
+          <t>133960</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
         <is>
-          <t>17,8%</t>
+          <t>15,93%</t>
         </is>
       </c>
       <c r="O47" s="2" t="inlineStr">
         <is>
-          <t>16,56%</t>
+          <t>14,83%</t>
         </is>
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>19,1%</t>
+          <t>17,02%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
@@ -5689,32 +5689,32 @@
       </c>
       <c r="R47" s="2" t="inlineStr">
         <is>
-          <t>209886</t>
+          <t>200154</t>
         </is>
       </c>
       <c r="S47" s="2" t="inlineStr">
         <is>
-          <t>197907</t>
+          <t>189506</t>
         </is>
       </c>
       <c r="T47" s="2" t="inlineStr">
         <is>
-          <t>221879</t>
+          <t>211285</t>
         </is>
       </c>
       <c r="U47" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="V47" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="W47" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>14,11%</t>
         </is>
       </c>
     </row>
@@ -5732,32 +5732,32 @@
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>170965</t>
+          <t>171536</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>161685</t>
+          <t>161915</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>181875</t>
+          <t>182099</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>24,95%</t>
+          <t>24,15%</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>23,6%</t>
+          <t>22,79%</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>26,55%</t>
+          <t>25,63%</t>
         </is>
       </c>
       <c r="J48" s="2" t="inlineStr">
@@ -5767,32 +5767,32 @@
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
-          <t>178836</t>
+          <t>184027</t>
         </is>
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>169071</t>
+          <t>174397</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>190432</t>
+          <t>194776</t>
         </is>
       </c>
       <c r="N48" s="2" t="inlineStr">
         <is>
-          <t>23,95%</t>
+          <t>23,38%</t>
         </is>
       </c>
       <c r="O48" s="2" t="inlineStr">
         <is>
-          <t>22,64%</t>
+          <t>22,16%</t>
         </is>
       </c>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>25,5%</t>
+          <t>24,75%</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
@@ -5802,32 +5802,32 @@
       </c>
       <c r="R48" s="2" t="inlineStr">
         <is>
-          <t>349801</t>
+          <t>355563</t>
         </is>
       </c>
       <c r="S48" s="2" t="inlineStr">
         <is>
-          <t>334867</t>
+          <t>341109</t>
         </is>
       </c>
       <c r="T48" s="2" t="inlineStr">
         <is>
-          <t>364486</t>
+          <t>371448</t>
         </is>
       </c>
       <c r="U48" s="2" t="inlineStr">
         <is>
-          <t>24,43%</t>
+          <t>23,74%</t>
         </is>
       </c>
       <c r="V48" s="2" t="inlineStr">
         <is>
-          <t>23,38%</t>
+          <t>22,78%</t>
         </is>
       </c>
       <c r="W48" s="2" t="inlineStr">
         <is>
-          <t>25,45%</t>
+          <t>24,8%</t>
         </is>
       </c>
     </row>
@@ -5845,32 +5845,32 @@
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>164021</t>
+          <t>154094</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>154876</t>
+          <t>145090</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>174522</t>
+          <t>164700</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>23,94%</t>
+          <t>21,69%</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>22,6%</t>
+          <t>20,42%</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>25,47%</t>
+          <t>23,18%</t>
         </is>
       </c>
       <c r="J49" s="2" t="inlineStr">
@@ -5880,32 +5880,32 @@
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
-          <t>63489</t>
+          <t>62155</t>
         </is>
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>56794</t>
+          <t>56175</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>70346</t>
+          <t>69158</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="O49" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
@@ -5915,32 +5915,32 @@
       </c>
       <c r="R49" s="2" t="inlineStr">
         <is>
-          <t>227510</t>
+          <t>216249</t>
         </is>
       </c>
       <c r="S49" s="2" t="inlineStr">
         <is>
-          <t>215673</t>
+          <t>204908</t>
         </is>
       </c>
       <c r="T49" s="2" t="inlineStr">
         <is>
-          <t>240600</t>
+          <t>229757</t>
         </is>
       </c>
       <c r="U49" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>14,44%</t>
         </is>
       </c>
       <c r="V49" s="2" t="inlineStr">
         <is>
-          <t>15,06%</t>
+          <t>13,68%</t>
         </is>
       </c>
       <c r="W49" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>15,34%</t>
         </is>
       </c>
     </row>
@@ -5958,32 +5958,32 @@
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>73728</t>
+          <t>82510</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>88444</t>
+          <t>99422</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>12,73%</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>11,61%</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>12,91%</t>
+          <t>13,99%</t>
         </is>
       </c>
       <c r="J50" s="2" t="inlineStr">
@@ -5993,32 +5993,32 @@
       </c>
       <c r="K50" s="2" t="inlineStr">
         <is>
-          <t>109504</t>
+          <t>122956</t>
         </is>
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>100894</t>
+          <t>113858</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>117859</t>
+          <t>131811</t>
         </is>
       </c>
       <c r="N50" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
+          <t>15,62%</t>
         </is>
       </c>
       <c r="O50" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>14,47%</t>
         </is>
       </c>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>15,78%</t>
+          <t>16,75%</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
@@ -6028,32 +6028,32 @@
       </c>
       <c r="R50" s="2" t="inlineStr">
         <is>
-          <t>190676</t>
+          <t>213381</t>
         </is>
       </c>
       <c r="S50" s="2" t="inlineStr">
         <is>
-          <t>179225</t>
+          <t>201607</t>
         </is>
       </c>
       <c r="T50" s="2" t="inlineStr">
         <is>
-          <t>201577</t>
+          <t>225515</t>
         </is>
       </c>
       <c r="U50" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>14,25%</t>
         </is>
       </c>
       <c r="V50" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>13,46%</t>
         </is>
       </c>
       <c r="W50" s="2" t="inlineStr">
         <is>
-          <t>14,08%</t>
+          <t>15,06%</t>
         </is>
       </c>
     </row>
@@ -6071,32 +6071,32 @@
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>146177</t>
+          <t>163247</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>136983</t>
+          <t>152631</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>155784</t>
+          <t>172616</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>21,33%</t>
+          <t>22,98%</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>19,99%</t>
+          <t>21,48%</t>
         </is>
       </c>
       <c r="I51" s="2" t="inlineStr">
         <is>
-          <t>22,74%</t>
+          <t>24,3%</t>
         </is>
       </c>
       <c r="J51" s="2" t="inlineStr">
@@ -6106,32 +6106,32 @@
       </c>
       <c r="K51" s="2" t="inlineStr">
         <is>
-          <t>143204</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>134081</t>
+          <t>158843</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
         <is>
-          <t>152916</t>
+          <t>179816</t>
         </is>
       </c>
       <c r="N51" s="2" t="inlineStr">
         <is>
-          <t>19,18%</t>
+          <t>21,45%</t>
         </is>
       </c>
       <c r="O51" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>20,18%</t>
         </is>
       </c>
       <c r="P51" s="2" t="inlineStr">
         <is>
-          <t>20,48%</t>
+          <t>22,85%</t>
         </is>
       </c>
       <c r="Q51" s="2" t="inlineStr">
@@ -6141,32 +6141,32 @@
       </c>
       <c r="R51" s="2" t="inlineStr">
         <is>
-          <t>289381</t>
+          <t>332106</t>
         </is>
       </c>
       <c r="S51" s="2" t="inlineStr">
         <is>
-          <t>276211</t>
+          <t>317413</t>
         </is>
       </c>
       <c r="T51" s="2" t="inlineStr">
         <is>
-          <t>304373</t>
+          <t>347088</t>
         </is>
       </c>
       <c r="U51" s="2" t="inlineStr">
         <is>
-          <t>20,21%</t>
+          <t>22,18%</t>
         </is>
       </c>
       <c r="V51" s="2" t="inlineStr">
         <is>
-          <t>19,29%</t>
+          <t>21,2%</t>
         </is>
       </c>
       <c r="W51" s="2" t="inlineStr">
         <is>
-          <t>21,26%</t>
+          <t>23,18%</t>
         </is>
       </c>
     </row>
@@ -6184,17 +6184,17 @@
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>685152</t>
+          <t>710429</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>685152</t>
+          <t>710429</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>685152</t>
+          <t>710429</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
@@ -6219,17 +6219,17 @@
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
-          <t>746826</t>
+          <t>787085</t>
         </is>
       </c>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>746826</t>
+          <t>787085</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
         <is>
-          <t>746826</t>
+          <t>787085</t>
         </is>
       </c>
       <c r="N52" s="2" t="inlineStr">
@@ -6254,17 +6254,17 @@
       </c>
       <c r="R52" s="2" t="inlineStr">
         <is>
-          <t>1431978</t>
+          <t>1497515</t>
         </is>
       </c>
       <c r="S52" s="2" t="inlineStr">
         <is>
-          <t>1431978</t>
+          <t>1497515</t>
         </is>
       </c>
       <c r="T52" s="2" t="inlineStr">
         <is>
-          <t>1431978</t>
+          <t>1497515</t>
         </is>
       </c>
       <c r="U52" s="2" t="inlineStr">
@@ -11318,12 +11318,12 @@
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>107189</t>
+          <t>102825</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>218202</t>
+          <t>212388</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
@@ -11333,12 +11333,12 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="J46" s="2" t="inlineStr">
@@ -11353,12 +11353,12 @@
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>353872</t>
+          <t>341606</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>564580</t>
+          <t>561174</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
@@ -11368,12 +11368,12 @@
       </c>
       <c r="O46" s="2" t="inlineStr">
         <is>
-          <t>16,0%</t>
+          <t>15,45%</t>
         </is>
       </c>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>25,53%</t>
+          <t>25,38%</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
@@ -11388,12 +11388,12 @@
       </c>
       <c r="S46" s="2" t="inlineStr">
         <is>
-          <t>523691</t>
+          <t>530831</t>
         </is>
       </c>
       <c r="T46" s="2" t="inlineStr">
         <is>
-          <t>755905</t>
+          <t>742398</t>
         </is>
       </c>
       <c r="U46" s="2" t="inlineStr">
@@ -11403,12 +11403,12 @@
       </c>
       <c r="V46" s="2" t="inlineStr">
         <is>
-          <t>12,2%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="W46" s="2" t="inlineStr">
         <is>
-          <t>17,61%</t>
+          <t>17,3%</t>
         </is>
       </c>
     </row>
@@ -11431,12 +11431,12 @@
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>147247</t>
+          <t>143322</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>256368</t>
+          <t>251830</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
@@ -11446,12 +11446,12 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="J47" s="2" t="inlineStr">
@@ -11466,12 +11466,12 @@
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>328169</t>
+          <t>322260</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>624000</t>
+          <t>593691</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
@@ -11481,12 +11481,12 @@
       </c>
       <c r="O47" s="2" t="inlineStr">
         <is>
-          <t>14,84%</t>
+          <t>14,57%</t>
         </is>
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>28,22%</t>
+          <t>26,85%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
@@ -11501,12 +11501,12 @@
       </c>
       <c r="S47" s="2" t="inlineStr">
         <is>
-          <t>515021</t>
+          <t>522687</t>
         </is>
       </c>
       <c r="T47" s="2" t="inlineStr">
         <is>
-          <t>838026</t>
+          <t>819482</t>
         </is>
       </c>
       <c r="U47" s="2" t="inlineStr">
@@ -11516,12 +11516,12 @@
       </c>
       <c r="V47" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="W47" s="2" t="inlineStr">
         <is>
-          <t>19,52%</t>
+          <t>19,09%</t>
         </is>
       </c>
     </row>
@@ -11544,12 +11544,12 @@
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>359009</t>
+          <t>364413</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>619571</t>
+          <t>622824</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
@@ -11559,12 +11559,12 @@
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>17,51%</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>29,77%</t>
+          <t>29,92%</t>
         </is>
       </c>
       <c r="J48" s="2" t="inlineStr">
@@ -11579,12 +11579,12 @@
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>454980</t>
+          <t>460885</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>1084448</t>
+          <t>1095921</t>
         </is>
       </c>
       <c r="N48" s="2" t="inlineStr">
@@ -11594,12 +11594,12 @@
       </c>
       <c r="O48" s="2" t="inlineStr">
         <is>
-          <t>20,58%</t>
+          <t>20,84%</t>
         </is>
       </c>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>49,04%</t>
+          <t>49,56%</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
@@ -11614,12 +11614,12 @@
       </c>
       <c r="S48" s="2" t="inlineStr">
         <is>
-          <t>955297</t>
+          <t>963488</t>
         </is>
       </c>
       <c r="T48" s="2" t="inlineStr">
         <is>
-          <t>1642825</t>
+          <t>1749336</t>
         </is>
       </c>
       <c r="U48" s="2" t="inlineStr">
@@ -11629,12 +11629,12 @@
       </c>
       <c r="V48" s="2" t="inlineStr">
         <is>
-          <t>22,25%</t>
+          <t>22,45%</t>
         </is>
       </c>
       <c r="W48" s="2" t="inlineStr">
         <is>
-          <t>38,27%</t>
+          <t>40,75%</t>
         </is>
       </c>
     </row>
@@ -11657,12 +11657,12 @@
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>254045</t>
+          <t>255831</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>976951</t>
+          <t>929605</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
@@ -11672,12 +11672,12 @@
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>12,29%</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>46,94%</t>
+          <t>44,66%</t>
         </is>
       </c>
       <c r="J49" s="2" t="inlineStr">
@@ -11692,12 +11692,12 @@
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>70275</t>
+          <t>70440</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>118639</t>
+          <t>118823</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
@@ -11707,7 +11707,7 @@
       </c>
       <c r="O49" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="P49" s="2" t="inlineStr">
@@ -11727,12 +11727,12 @@
       </c>
       <c r="S49" s="2" t="inlineStr">
         <is>
-          <t>328735</t>
+          <t>335025</t>
         </is>
       </c>
       <c r="T49" s="2" t="inlineStr">
         <is>
-          <t>1295476</t>
+          <t>1298581</t>
         </is>
       </c>
       <c r="U49" s="2" t="inlineStr">
@@ -11742,12 +11742,12 @@
       </c>
       <c r="V49" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="W49" s="2" t="inlineStr">
         <is>
-          <t>30,18%</t>
+          <t>30,25%</t>
         </is>
       </c>
     </row>
@@ -11770,12 +11770,12 @@
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>228207</t>
+          <t>218760</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>381038</t>
+          <t>380025</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
@@ -11785,12 +11785,12 @@
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>10,51%</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>18,31%</t>
+          <t>18,26%</t>
         </is>
       </c>
       <c r="J50" s="2" t="inlineStr">
@@ -11805,12 +11805,12 @@
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>182203</t>
+          <t>181671</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>304003</t>
+          <t>301910</t>
         </is>
       </c>
       <c r="N50" s="2" t="inlineStr">
@@ -11820,12 +11820,12 @@
       </c>
       <c r="O50" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>13,75%</t>
+          <t>13,65%</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
@@ -11840,12 +11840,12 @@
       </c>
       <c r="S50" s="2" t="inlineStr">
         <is>
-          <t>458135</t>
+          <t>463519</t>
         </is>
       </c>
       <c r="T50" s="2" t="inlineStr">
         <is>
-          <t>659367</t>
+          <t>660268</t>
         </is>
       </c>
       <c r="U50" s="2" t="inlineStr">
@@ -11855,12 +11855,12 @@
       </c>
       <c r="V50" s="2" t="inlineStr">
         <is>
-          <t>10,67%</t>
+          <t>10,8%</t>
         </is>
       </c>
       <c r="W50" s="2" t="inlineStr">
         <is>
-          <t>15,36%</t>
+          <t>15,38%</t>
         </is>
       </c>
     </row>
@@ -11883,12 +11883,12 @@
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>240415</t>
+          <t>258826</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>428221</t>
+          <t>429326</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
@@ -11898,12 +11898,12 @@
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>12,44%</t>
         </is>
       </c>
       <c r="I51" s="2" t="inlineStr">
         <is>
-          <t>20,57%</t>
+          <t>20,63%</t>
         </is>
       </c>
       <c r="J51" s="2" t="inlineStr">
@@ -11918,12 +11918,12 @@
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>212982</t>
+          <t>216491</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
         <is>
-          <t>345690</t>
+          <t>344089</t>
         </is>
       </c>
       <c r="N51" s="2" t="inlineStr">
@@ -11933,12 +11933,12 @@
       </c>
       <c r="O51" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="P51" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>15,56%</t>
         </is>
       </c>
       <c r="Q51" s="2" t="inlineStr">
@@ -11953,12 +11953,12 @@
       </c>
       <c r="S51" s="2" t="inlineStr">
         <is>
-          <t>533220</t>
+          <t>532914</t>
         </is>
       </c>
       <c r="T51" s="2" t="inlineStr">
         <is>
-          <t>755167</t>
+          <t>749768</t>
         </is>
       </c>
       <c r="U51" s="2" t="inlineStr">
@@ -11968,12 +11968,12 @@
       </c>
       <c r="V51" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="W51" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>17,47%</t>
         </is>
       </c>
     </row>
@@ -22932,12 +22932,12 @@
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>27630</t>
+          <t>28063</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>46954</t>
+          <t>47386</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
@@ -22947,12 +22947,12 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="J46" s="2" t="inlineStr">
@@ -22967,12 +22967,12 @@
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>53036</t>
+          <t>53222</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>74141</t>
+          <t>76391</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
@@ -22982,12 +22982,12 @@
       </c>
       <c r="O46" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
@@ -23002,12 +23002,12 @@
       </c>
       <c r="S46" s="2" t="inlineStr">
         <is>
-          <t>85774</t>
+          <t>85076</t>
         </is>
       </c>
       <c r="T46" s="2" t="inlineStr">
         <is>
-          <t>115070</t>
+          <t>115548</t>
         </is>
       </c>
       <c r="U46" s="2" t="inlineStr">
@@ -23017,12 +23017,12 @@
       </c>
       <c r="V46" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="W46" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>8,06%</t>
         </is>
       </c>
     </row>
@@ -23045,12 +23045,12 @@
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>42614</t>
+          <t>43693</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>65197</t>
+          <t>67019</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
@@ -23060,12 +23060,12 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="J47" s="2" t="inlineStr">
@@ -23080,12 +23080,12 @@
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>80191</t>
+          <t>80138</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>109655</t>
+          <t>111903</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
@@ -23095,12 +23095,12 @@
       </c>
       <c r="O47" s="2" t="inlineStr">
         <is>
-          <t>10,64%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
@@ -23115,12 +23115,12 @@
       </c>
       <c r="S47" s="2" t="inlineStr">
         <is>
-          <t>130747</t>
+          <t>130191</t>
         </is>
       </c>
       <c r="T47" s="2" t="inlineStr">
         <is>
-          <t>168868</t>
+          <t>167141</t>
         </is>
       </c>
       <c r="U47" s="2" t="inlineStr">
@@ -23130,12 +23130,12 @@
       </c>
       <c r="V47" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="W47" s="2" t="inlineStr">
         <is>
-          <t>11,78%</t>
+          <t>11,66%</t>
         </is>
       </c>
     </row>
@@ -23158,12 +23158,12 @@
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>145475</t>
+          <t>145589</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>182573</t>
+          <t>182244</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
@@ -23173,12 +23173,12 @@
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>21,39%</t>
+          <t>21,41%</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>26,84%</t>
+          <t>26,8%</t>
         </is>
       </c>
       <c r="J48" s="2" t="inlineStr">
@@ -23193,12 +23193,12 @@
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>142146</t>
+          <t>141943</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>177110</t>
+          <t>176813</t>
         </is>
       </c>
       <c r="N48" s="2" t="inlineStr">
@@ -23208,12 +23208,12 @@
       </c>
       <c r="O48" s="2" t="inlineStr">
         <is>
-          <t>18,86%</t>
+          <t>18,84%</t>
         </is>
       </c>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>23,5%</t>
+          <t>23,46%</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
@@ -23228,12 +23228,12 @@
       </c>
       <c r="S48" s="2" t="inlineStr">
         <is>
-          <t>296286</t>
+          <t>296161</t>
         </is>
       </c>
       <c r="T48" s="2" t="inlineStr">
         <is>
-          <t>348877</t>
+          <t>347353</t>
         </is>
       </c>
       <c r="U48" s="2" t="inlineStr">
@@ -23243,12 +23243,12 @@
       </c>
       <c r="V48" s="2" t="inlineStr">
         <is>
-          <t>20,67%</t>
+          <t>20,66%</t>
         </is>
       </c>
       <c r="W48" s="2" t="inlineStr">
         <is>
-          <t>24,33%</t>
+          <t>24,23%</t>
         </is>
       </c>
     </row>
@@ -23271,12 +23271,12 @@
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>83303</t>
+          <t>83388</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>111046</t>
+          <t>110818</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
@@ -23286,12 +23286,12 @@
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>16,29%</t>
         </is>
       </c>
       <c r="J49" s="2" t="inlineStr">
@@ -23306,12 +23306,12 @@
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>46902</t>
+          <t>47209</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>71657</t>
+          <t>69986</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
@@ -23321,47 +23321,47 @@
       </c>
       <c r="O49" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
+          <t>9,29%</t>
+        </is>
+      </c>
+      <c r="Q49" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="R49" s="2" t="inlineStr">
+        <is>
+          <t>153557</t>
+        </is>
+      </c>
+      <c r="S49" s="2" t="inlineStr">
+        <is>
+          <t>136329</t>
+        </is>
+      </c>
+      <c r="T49" s="2" t="inlineStr">
+        <is>
+          <t>174090</t>
+        </is>
+      </c>
+      <c r="U49" s="2" t="inlineStr">
+        <is>
+          <t>10,71%</t>
+        </is>
+      </c>
+      <c r="V49" s="2" t="inlineStr">
+        <is>
           <t>9,51%</t>
         </is>
       </c>
-      <c r="Q49" s="2" t="inlineStr">
-        <is>
-          <t>346</t>
-        </is>
-      </c>
-      <c r="R49" s="2" t="inlineStr">
-        <is>
-          <t>153557</t>
-        </is>
-      </c>
-      <c r="S49" s="2" t="inlineStr">
-        <is>
-          <t>135738</t>
-        </is>
-      </c>
-      <c r="T49" s="2" t="inlineStr">
-        <is>
-          <t>173923</t>
-        </is>
-      </c>
-      <c r="U49" s="2" t="inlineStr">
-        <is>
-          <t>10,71%</t>
-        </is>
-      </c>
-      <c r="V49" s="2" t="inlineStr">
-        <is>
-          <t>9,47%</t>
-        </is>
-      </c>
       <c r="W49" s="2" t="inlineStr">
         <is>
-          <t>12,13%</t>
+          <t>12,14%</t>
         </is>
       </c>
     </row>
@@ -23384,12 +23384,12 @@
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>110503</t>
+          <t>111499</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>140416</t>
+          <t>141183</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
@@ -23399,12 +23399,12 @@
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>20,65%</t>
+          <t>20,76%</t>
         </is>
       </c>
       <c r="J50" s="2" t="inlineStr">
@@ -23419,12 +23419,12 @@
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>153084</t>
+          <t>153347</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>184091</t>
+          <t>185737</t>
         </is>
       </c>
       <c r="N50" s="2" t="inlineStr">
@@ -23434,12 +23434,12 @@
       </c>
       <c r="O50" s="2" t="inlineStr">
         <is>
-          <t>20,32%</t>
+          <t>20,35%</t>
         </is>
       </c>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>24,43%</t>
+          <t>24,65%</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
@@ -23454,12 +23454,12 @@
       </c>
       <c r="S50" s="2" t="inlineStr">
         <is>
-          <t>273939</t>
+          <t>274676</t>
         </is>
       </c>
       <c r="T50" s="2" t="inlineStr">
         <is>
-          <t>316242</t>
+          <t>316642</t>
         </is>
       </c>
       <c r="U50" s="2" t="inlineStr">
@@ -23469,12 +23469,12 @@
       </c>
       <c r="V50" s="2" t="inlineStr">
         <is>
-          <t>19,11%</t>
+          <t>19,16%</t>
         </is>
       </c>
       <c r="W50" s="2" t="inlineStr">
         <is>
-          <t>22,06%</t>
+          <t>22,09%</t>
         </is>
       </c>
     </row>
@@ -23497,12 +23497,12 @@
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>188679</t>
+          <t>189767</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>223318</t>
+          <t>224520</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
@@ -23512,12 +23512,12 @@
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>27,74%</t>
+          <t>27,9%</t>
         </is>
       </c>
       <c r="I51" s="2" t="inlineStr">
         <is>
-          <t>32,83%</t>
+          <t>33,01%</t>
         </is>
       </c>
       <c r="J51" s="2" t="inlineStr">
@@ -23532,12 +23532,12 @@
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>192946</t>
+          <t>193665</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
         <is>
-          <t>225621</t>
+          <t>227717</t>
         </is>
       </c>
       <c r="N51" s="2" t="inlineStr">
@@ -23547,12 +23547,12 @@
       </c>
       <c r="O51" s="2" t="inlineStr">
         <is>
-          <t>25,61%</t>
+          <t>25,7%</t>
         </is>
       </c>
       <c r="P51" s="2" t="inlineStr">
         <is>
-          <t>29,94%</t>
+          <t>30,22%</t>
         </is>
       </c>
       <c r="Q51" s="2" t="inlineStr">
@@ -23567,12 +23567,12 @@
       </c>
       <c r="S51" s="2" t="inlineStr">
         <is>
-          <t>391301</t>
+          <t>392905</t>
         </is>
       </c>
       <c r="T51" s="2" t="inlineStr">
         <is>
-          <t>442205</t>
+          <t>439514</t>
         </is>
       </c>
       <c r="U51" s="2" t="inlineStr">
@@ -23582,12 +23582,12 @@
       </c>
       <c r="V51" s="2" t="inlineStr">
         <is>
-          <t>27,29%</t>
+          <t>27,41%</t>
         </is>
       </c>
       <c r="W51" s="2" t="inlineStr">
         <is>
-          <t>30,84%</t>
+          <t>30,66%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CLASESOCIAL_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_R-Clase-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Clase social de la persona entrevistada en País Vasco (tasa de respuesta: 97,98%)</t>
+          <t>Clase social de la persona entrevistada en Andalucia (tasa de respuesta: 98,49%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1296,12 +1296,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>858</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>163247</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1331,12 +1331,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>455</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>168859</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1366,12 +1366,12 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1738</t>
+          <t>854</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>332106</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
@@ -1409,22 +1409,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>858</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>163247</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>163247</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>163247</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1444,22 +1444,22 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>455</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>168859</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>168859</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>168859</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1479,22 +1479,22 @@
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>1738</t>
+          <t>854</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>332106</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>332106</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>332106</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -1978,12 +1978,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2013,12 +2013,12 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>393</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>122956</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -2048,12 +2048,12 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1169</t>
+          <t>727</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>213381</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
@@ -2204,22 +2204,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2239,22 +2239,22 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>393</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>122956</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>122956</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>122956</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -2274,22 +2274,22 @@
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1169</t>
+          <t>727</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>213381</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>213381</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>213381</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -2660,12 +2660,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>923</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>154094</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2695,12 +2695,12 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>163</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>62155</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
@@ -2730,12 +2730,12 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1292</t>
+          <t>424</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>216249</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
@@ -2999,22 +2999,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>923</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>154094</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>154094</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>154094</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3034,22 +3034,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>163</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>62155</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>62155</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>62155</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3069,22 +3069,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1292</t>
+          <t>424</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>216249</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>216249</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>216249</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3342,12 +3342,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>563</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>171536</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -3377,12 +3377,12 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>1049</t>
+          <t>671</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>184027</t>
+          <t>490749</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
@@ -3412,12 +3412,12 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>2059</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>355563</t>
+          <t>1100731</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
@@ -3794,22 +3794,22 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>563</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>171536</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>171536</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>171536</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3829,22 +3829,22 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>1049</t>
+          <t>671</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>184027</t>
+          <t>490749</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>184027</t>
+          <t>490749</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>184027</t>
+          <t>490749</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3864,22 +3864,22 @@
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>2059</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>355563</t>
+          <t>1100731</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>355563</t>
+          <t>1100731</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>355563</t>
+          <t>1100731</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -4024,12 +4024,12 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>233</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>74738</t>
+          <t>254329</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
@@ -4059,12 +4059,12 @@
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>586</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408742</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
@@ -4094,12 +4094,12 @@
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>819</t>
         </is>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>200154</t>
+          <t>663071</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
@@ -4589,22 +4589,22 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>233</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>74738</t>
+          <t>254329</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>74738</t>
+          <t>254329</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>74738</t>
+          <t>254329</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -4624,22 +4624,22 @@
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>586</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408742</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408742</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408742</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -4659,22 +4659,22 @@
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>819</t>
         </is>
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>200154</t>
+          <t>663071</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>200154</t>
+          <t>663071</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>200154</t>
+          <t>663071</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
@@ -4706,12 +4706,12 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>56389</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
@@ -4741,12 +4741,12 @@
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>700</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>123672</t>
+          <t>548162</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
@@ -4776,12 +4776,12 @@
       </c>
       <c r="Q39" s="2" t="inlineStr">
         <is>
-          <t>970</t>
+          <t>778</t>
         </is>
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>180061</t>
+          <t>717659</t>
         </is>
       </c>
       <c r="S39" s="2" t="inlineStr">
@@ -5384,22 +5384,22 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>56389</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>56389</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>56389</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
@@ -5419,22 +5419,22 @@
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>700</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>123672</t>
+          <t>548162</t>
         </is>
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>123672</t>
+          <t>548162</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
         <is>
-          <t>123672</t>
+          <t>548162</t>
         </is>
       </c>
       <c r="N45" s="2" t="inlineStr">
@@ -5454,22 +5454,22 @@
       </c>
       <c r="Q45" s="2" t="inlineStr">
         <is>
-          <t>970</t>
+          <t>778</t>
         </is>
       </c>
       <c r="R45" s="2" t="inlineStr">
         <is>
-          <t>180061</t>
+          <t>717659</t>
         </is>
       </c>
       <c r="S45" s="2" t="inlineStr">
         <is>
-          <t>180061</t>
+          <t>717659</t>
         </is>
       </c>
       <c r="T45" s="2" t="inlineStr">
         <is>
-          <t>180061</t>
+          <t>717659</t>
         </is>
       </c>
       <c r="U45" s="2" t="inlineStr">
@@ -5501,107 +5501,107 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>56389</t>
+          <t>169496</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>49162</t>
+          <t>132465</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>63938</t>
+          <t>217165</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="J46" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>700</t>
         </is>
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>123672</t>
+          <t>548162</t>
         </is>
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>114942</t>
+          <t>509006</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>133026</t>
+          <t>590516</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>25,22%</t>
         </is>
       </c>
       <c r="O46" s="2" t="inlineStr">
         <is>
-          <t>14,6%</t>
+          <t>23,42%</t>
         </is>
       </c>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>16,9%</t>
+          <t>27,17%</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
         <is>
-          <t>970</t>
+          <t>778</t>
         </is>
       </c>
       <c r="R46" s="2" t="inlineStr">
         <is>
-          <t>180061</t>
+          <t>717659</t>
         </is>
       </c>
       <c r="S46" s="2" t="inlineStr">
         <is>
-          <t>169148</t>
+          <t>665289</t>
         </is>
       </c>
       <c r="T46" s="2" t="inlineStr">
         <is>
-          <t>192821</t>
+          <t>774442</t>
         </is>
       </c>
       <c r="U46" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>17,06%</t>
         </is>
       </c>
       <c r="V46" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>15,81%</t>
         </is>
       </c>
       <c r="W46" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>18,4%</t>
         </is>
       </c>
     </row>
@@ -5614,107 +5614,107 @@
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>233</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>74738</t>
+          <t>254329</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>68197</t>
+          <t>223993</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>82559</t>
+          <t>285792</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>14,05%</t>
         </is>
       </c>
       <c r="J47" s="2" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>586</t>
         </is>
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408742</t>
         </is>
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>116762</t>
+          <t>377215</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>133960</t>
+          <t>441038</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
         <is>
-          <t>15,93%</t>
+          <t>18,8%</t>
         </is>
       </c>
       <c r="O47" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>17,02%</t>
+          <t>20,29%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>819</t>
         </is>
       </c>
       <c r="R47" s="2" t="inlineStr">
         <is>
-          <t>200154</t>
+          <t>663071</t>
         </is>
       </c>
       <c r="S47" s="2" t="inlineStr">
         <is>
-          <t>189506</t>
+          <t>619109</t>
         </is>
       </c>
       <c r="T47" s="2" t="inlineStr">
         <is>
-          <t>211285</t>
+          <t>708862</t>
         </is>
       </c>
       <c r="U47" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>15,76%</t>
         </is>
       </c>
       <c r="V47" s="2" t="inlineStr">
         <is>
-          <t>12,65%</t>
+          <t>14,71%</t>
         </is>
       </c>
       <c r="W47" s="2" t="inlineStr">
         <is>
-          <t>14,11%</t>
+          <t>16,85%</t>
         </is>
       </c>
     </row>
@@ -5727,107 +5727,107 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>563</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>171536</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>161915</t>
+          <t>569214</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>182099</t>
+          <t>661080</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>24,15%</t>
+          <t>29,99%</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>22,79%</t>
+          <t>27,98%</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>25,63%</t>
+          <t>32,5%</t>
         </is>
       </c>
       <c r="J48" s="2" t="inlineStr">
         <is>
-          <t>1049</t>
+          <t>671</t>
         </is>
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
-          <t>184027</t>
+          <t>490749</t>
         </is>
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>174397</t>
+          <t>457653</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>194776</t>
+          <t>528865</t>
         </is>
       </c>
       <c r="N48" s="2" t="inlineStr">
         <is>
-          <t>23,38%</t>
+          <t>22,58%</t>
         </is>
       </c>
       <c r="O48" s="2" t="inlineStr">
         <is>
-          <t>22,16%</t>
+          <t>21,05%</t>
         </is>
       </c>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>24,75%</t>
+          <t>24,33%</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
         <is>
-          <t>2059</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="R48" s="2" t="inlineStr">
         <is>
-          <t>355563</t>
+          <t>1100731</t>
         </is>
       </c>
       <c r="S48" s="2" t="inlineStr">
         <is>
-          <t>341109</t>
+          <t>1042797</t>
         </is>
       </c>
       <c r="T48" s="2" t="inlineStr">
         <is>
-          <t>371448</t>
+          <t>1158824</t>
         </is>
       </c>
       <c r="U48" s="2" t="inlineStr">
         <is>
-          <t>23,74%</t>
+          <t>26,16%</t>
         </is>
       </c>
       <c r="V48" s="2" t="inlineStr">
         <is>
-          <t>22,78%</t>
+          <t>24,78%</t>
         </is>
       </c>
       <c r="W48" s="2" t="inlineStr">
         <is>
-          <t>24,8%</t>
+          <t>27,54%</t>
         </is>
       </c>
     </row>
@@ -5840,107 +5840,107 @@
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>923</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>154094</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>145090</t>
+          <t>229738</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>164700</t>
+          <t>295426</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>21,69%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>20,42%</t>
+          <t>11,29%</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>23,18%</t>
+          <t>14,52%</t>
         </is>
       </c>
       <c r="J49" s="2" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>163</t>
         </is>
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
-          <t>62155</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>56175</t>
+          <t>93554</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>69158</t>
+          <t>131469</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="O49" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
         <is>
-          <t>1292</t>
+          <t>424</t>
         </is>
       </c>
       <c r="R49" s="2" t="inlineStr">
         <is>
-          <t>216249</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="S49" s="2" t="inlineStr">
         <is>
-          <t>204908</t>
+          <t>335928</t>
         </is>
       </c>
       <c r="T49" s="2" t="inlineStr">
         <is>
-          <t>229757</t>
+          <t>408694</t>
         </is>
       </c>
       <c r="U49" s="2" t="inlineStr">
         <is>
-          <t>14,44%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="V49" s="2" t="inlineStr">
         <is>
-          <t>13,68%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="W49" s="2" t="inlineStr">
         <is>
-          <t>15,34%</t>
+          <t>9,71%</t>
         </is>
       </c>
     </row>
@@ -5953,107 +5953,107 @@
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>82510</t>
+          <t>306612</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>99422</t>
+          <t>382853</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>16,93%</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>11,61%</t>
+          <t>15,07%</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>13,99%</t>
+          <t>18,82%</t>
         </is>
       </c>
       <c r="J50" s="2" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>393</t>
         </is>
       </c>
       <c r="K50" s="2" t="inlineStr">
         <is>
-          <t>122956</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>113858</t>
+          <t>259093</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>131811</t>
+          <t>315662</t>
         </is>
       </c>
       <c r="N50" s="2" t="inlineStr">
         <is>
-          <t>15,62%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="O50" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>16,75%</t>
+          <t>14,52%</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
         <is>
-          <t>1169</t>
+          <t>727</t>
         </is>
       </c>
       <c r="R50" s="2" t="inlineStr">
         <is>
-          <t>213381</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="S50" s="2" t="inlineStr">
         <is>
-          <t>201607</t>
+          <t>587543</t>
         </is>
       </c>
       <c r="T50" s="2" t="inlineStr">
         <is>
-          <t>225515</t>
+          <t>676766</t>
         </is>
       </c>
       <c r="U50" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>15,0%</t>
         </is>
       </c>
       <c r="V50" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>13,96%</t>
         </is>
       </c>
       <c r="W50" s="2" t="inlineStr">
         <is>
-          <t>15,06%</t>
+          <t>16,08%</t>
         </is>
       </c>
     </row>
@@ -6066,107 +6066,107 @@
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>858</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>163247</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>152631</t>
+          <t>361193</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>172616</t>
+          <t>438433</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>22,98%</t>
+          <t>19,44%</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>21,48%</t>
+          <t>17,76%</t>
         </is>
       </c>
       <c r="I51" s="2" t="inlineStr">
         <is>
-          <t>24,3%</t>
+          <t>21,55%</t>
         </is>
       </c>
       <c r="J51" s="2" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>455</t>
         </is>
       </c>
       <c r="K51" s="2" t="inlineStr">
         <is>
-          <t>168859</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>158843</t>
+          <t>297880</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
         <is>
-          <t>179816</t>
+          <t>356806</t>
         </is>
       </c>
       <c r="N51" s="2" t="inlineStr">
         <is>
-          <t>21,45%</t>
+          <t>15,07%</t>
         </is>
       </c>
       <c r="O51" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>13,7%</t>
         </is>
       </c>
       <c r="P51" s="2" t="inlineStr">
         <is>
-          <t>22,85%</t>
+          <t>16,41%</t>
         </is>
       </c>
       <c r="Q51" s="2" t="inlineStr">
         <is>
-          <t>1738</t>
+          <t>854</t>
         </is>
       </c>
       <c r="R51" s="2" t="inlineStr">
         <is>
-          <t>332106</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="S51" s="2" t="inlineStr">
         <is>
-          <t>317413</t>
+          <t>676412</t>
         </is>
       </c>
       <c r="T51" s="2" t="inlineStr">
         <is>
-          <t>347088</t>
+          <t>771600</t>
         </is>
       </c>
       <c r="U51" s="2" t="inlineStr">
         <is>
-          <t>22,18%</t>
+          <t>17,18%</t>
         </is>
       </c>
       <c r="V51" s="2" t="inlineStr">
         <is>
-          <t>21,2%</t>
+          <t>16,08%</t>
         </is>
       </c>
       <c r="W51" s="2" t="inlineStr">
         <is>
-          <t>23,18%</t>
+          <t>18,34%</t>
         </is>
       </c>
     </row>
@@ -6179,22 +6179,22 @@
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>4009</t>
+          <t>1868</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>710429</t>
+          <t>2034097</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>710429</t>
+          <t>2034097</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>710429</t>
+          <t>2034097</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
@@ -6214,22 +6214,22 @@
       </c>
       <c r="J52" s="2" t="inlineStr">
         <is>
-          <t>4417</t>
+          <t>2968</t>
         </is>
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
-          <t>787085</t>
+          <t>2173706</t>
         </is>
       </c>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>787085</t>
+          <t>2173706</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
         <is>
-          <t>787085</t>
+          <t>2173706</t>
         </is>
       </c>
       <c r="N52" s="2" t="inlineStr">
@@ -6249,22 +6249,22 @@
       </c>
       <c r="Q52" s="2" t="inlineStr">
         <is>
-          <t>8426</t>
+          <t>4836</t>
         </is>
       </c>
       <c r="R52" s="2" t="inlineStr">
         <is>
-          <t>1497515</t>
+          <t>4207803</t>
         </is>
       </c>
       <c r="S52" s="2" t="inlineStr">
         <is>
-          <t>1497515</t>
+          <t>4207803</t>
         </is>
       </c>
       <c r="T52" s="2" t="inlineStr">
         <is>
-          <t>1497515</t>
+          <t>4207803</t>
         </is>
       </c>
       <c r="U52" s="2" t="inlineStr">
@@ -6353,7 +6353,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Clase social de la persona entrevistada en Andalucia (tasa de respuesta: 98,49%)</t>
+          <t>Clase social de la persona entrevistada en Barcelona (tasa de respuesta: 99,43%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -7103,12 +7103,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>601</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>205642</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -7138,12 +7138,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>614</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>210396</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -7173,12 +7173,12 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>1215</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>416039</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
@@ -7216,22 +7216,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>601</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>205642</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>205642</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>205642</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -7251,22 +7251,22 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>614</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>210396</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>210396</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>210396</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -7286,22 +7286,22 @@
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>1215</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>416039</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>416039</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>416039</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -7785,12 +7785,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>124948</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -7820,12 +7820,12 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>430</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>169043</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -7855,12 +7855,12 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>730</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>293990</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
@@ -8011,22 +8011,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>124948</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>124948</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>124948</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -8046,22 +8046,22 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>430</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>169043</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>169043</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>169043</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -8081,22 +8081,22 @@
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>730</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>293990</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>293990</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>293990</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -8467,12 +8467,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>208</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>96153</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -8502,12 +8502,12 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>138</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
@@ -8537,12 +8537,12 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>346</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>153557</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
@@ -8806,22 +8806,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>208</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>96153</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>96153</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>96153</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -8841,22 +8841,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>138</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -8876,22 +8876,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>346</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>153557</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>153557</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>153557</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -9149,12 +9149,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>335</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>163142</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -9184,12 +9184,12 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>333</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>637204</t>
+          <t>158908</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
@@ -9219,12 +9219,12 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>668</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1173359</t>
+          <t>322051</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
@@ -9601,22 +9601,22 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>335</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>163142</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>163142</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>163142</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -9636,22 +9636,22 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>333</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>637204</t>
+          <t>158908</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>637204</t>
+          <t>158908</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>637204</t>
+          <t>158908</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -9671,22 +9671,22 @@
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>668</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>1173359</t>
+          <t>322051</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>1173359</t>
+          <t>322051</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>1173359</t>
+          <t>322051</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -9831,12 +9831,12 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>212219</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
@@ -9866,12 +9866,12 @@
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>185</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>426289</t>
+          <t>94441</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
@@ -9901,12 +9901,12 @@
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>819</t>
+          <t>287</t>
         </is>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>638508</t>
+          <t>148150</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
@@ -10396,22 +10396,22 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>212219</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>212219</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>212219</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -10431,22 +10431,22 @@
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>185</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>426289</t>
+          <t>94441</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>426289</t>
+          <t>94441</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>426289</t>
+          <t>94441</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -10466,22 +10466,22 @@
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>819</t>
+          <t>287</t>
         </is>
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>638508</t>
+          <t>148150</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>638508</t>
+          <t>148150</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>638508</t>
+          <t>148150</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
@@ -10513,12 +10513,12 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
@@ -10548,12 +10548,12 @@
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>156</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>491187</t>
+          <t>63350</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
@@ -10583,12 +10583,12 @@
       </c>
       <c r="Q39" s="2" t="inlineStr">
         <is>
-          <t>778</t>
+          <t>246</t>
         </is>
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>657948</t>
+          <t>99897</t>
         </is>
       </c>
       <c r="S39" s="2" t="inlineStr">
@@ -11191,22 +11191,22 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
@@ -11226,22 +11226,22 @@
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>156</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>491187</t>
+          <t>63350</t>
         </is>
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>491187</t>
+          <t>63350</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
         <is>
-          <t>491187</t>
+          <t>63350</t>
         </is>
       </c>
       <c r="N45" s="2" t="inlineStr">
@@ -11261,22 +11261,22 @@
       </c>
       <c r="Q45" s="2" t="inlineStr">
         <is>
-          <t>778</t>
+          <t>246</t>
         </is>
       </c>
       <c r="R45" s="2" t="inlineStr">
         <is>
-          <t>657948</t>
+          <t>99897</t>
         </is>
       </c>
       <c r="S45" s="2" t="inlineStr">
         <is>
-          <t>657948</t>
+          <t>99897</t>
         </is>
       </c>
       <c r="T45" s="2" t="inlineStr">
         <is>
-          <t>657948</t>
+          <t>99897</t>
         </is>
       </c>
       <c r="U45" s="2" t="inlineStr">
@@ -11308,107 +11308,107 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>102825</t>
+          <t>28063</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>212388</t>
+          <t>47386</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="J46" s="2" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>156</t>
         </is>
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>491187</t>
+          <t>63350</t>
         </is>
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>341606</t>
+          <t>53222</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>561174</t>
+          <t>76391</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
         <is>
-          <t>22,21%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="O46" s="2" t="inlineStr">
         <is>
-          <t>15,45%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>25,38%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
         <is>
-          <t>778</t>
+          <t>246</t>
         </is>
       </c>
       <c r="R46" s="2" t="inlineStr">
         <is>
-          <t>657948</t>
+          <t>99897</t>
         </is>
       </c>
       <c r="S46" s="2" t="inlineStr">
         <is>
-          <t>530831</t>
+          <t>85076</t>
         </is>
       </c>
       <c r="T46" s="2" t="inlineStr">
         <is>
-          <t>742398</t>
+          <t>115548</t>
         </is>
       </c>
       <c r="U46" s="2" t="inlineStr">
         <is>
-          <t>15,33%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="V46" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="W46" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>8,06%</t>
         </is>
       </c>
     </row>
@@ -11421,107 +11421,107 @@
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>212219</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>143322</t>
+          <t>43693</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>251830</t>
+          <t>67019</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="J47" s="2" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>185</t>
         </is>
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>426289</t>
+          <t>94441</t>
         </is>
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>322260</t>
+          <t>80138</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>593691</t>
+          <t>111903</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>12,53%</t>
         </is>
       </c>
       <c r="O47" s="2" t="inlineStr">
         <is>
-          <t>14,57%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>26,85%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
         <is>
-          <t>819</t>
+          <t>287</t>
         </is>
       </c>
       <c r="R47" s="2" t="inlineStr">
         <is>
-          <t>638508</t>
+          <t>148150</t>
         </is>
       </c>
       <c r="S47" s="2" t="inlineStr">
         <is>
-          <t>522687</t>
+          <t>130191</t>
         </is>
       </c>
       <c r="T47" s="2" t="inlineStr">
         <is>
-          <t>819482</t>
+          <t>167141</t>
         </is>
       </c>
       <c r="U47" s="2" t="inlineStr">
         <is>
-          <t>14,87%</t>
+          <t>10,33%</t>
         </is>
       </c>
       <c r="V47" s="2" t="inlineStr">
         <is>
-          <t>12,18%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="W47" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>11,66%</t>
         </is>
       </c>
     </row>
@@ -11534,107 +11534,107 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>335</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>163142</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>364413</t>
+          <t>145589</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>622824</t>
+          <t>182244</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>25,76%</t>
+          <t>23,99%</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>17,51%</t>
+          <t>21,41%</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>29,92%</t>
+          <t>26,8%</t>
         </is>
       </c>
       <c r="J48" s="2" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>333</t>
         </is>
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
-          <t>637204</t>
+          <t>158908</t>
         </is>
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>460885</t>
+          <t>141943</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>1095921</t>
+          <t>176813</t>
         </is>
       </c>
       <c r="N48" s="2" t="inlineStr">
         <is>
-          <t>28,82%</t>
+          <t>21,09%</t>
         </is>
       </c>
       <c r="O48" s="2" t="inlineStr">
         <is>
-          <t>20,84%</t>
+          <t>18,84%</t>
         </is>
       </c>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>49,56%</t>
+          <t>23,46%</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>668</t>
         </is>
       </c>
       <c r="R48" s="2" t="inlineStr">
         <is>
-          <t>1173359</t>
+          <t>322051</t>
         </is>
       </c>
       <c r="S48" s="2" t="inlineStr">
         <is>
-          <t>963488</t>
+          <t>296161</t>
         </is>
       </c>
       <c r="T48" s="2" t="inlineStr">
         <is>
-          <t>1749336</t>
+          <t>347353</t>
         </is>
       </c>
       <c r="U48" s="2" t="inlineStr">
         <is>
-          <t>27,33%</t>
+          <t>22,46%</t>
         </is>
       </c>
       <c r="V48" s="2" t="inlineStr">
         <is>
-          <t>22,45%</t>
+          <t>20,66%</t>
         </is>
       </c>
       <c r="W48" s="2" t="inlineStr">
         <is>
-          <t>40,75%</t>
+          <t>24,23%</t>
         </is>
       </c>
     </row>
@@ -11647,107 +11647,107 @@
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>208</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>96153</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>255831</t>
+          <t>83388</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>929605</t>
+          <t>110818</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>22,84%</t>
+          <t>14,14%</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>44,66%</t>
+          <t>16,29%</t>
         </is>
       </c>
       <c r="J49" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>138</t>
         </is>
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>70440</t>
+          <t>47209</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>118823</t>
+          <t>69986</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="O49" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>346</t>
         </is>
       </c>
       <c r="R49" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>153557</t>
         </is>
       </c>
       <c r="S49" s="2" t="inlineStr">
         <is>
-          <t>335025</t>
+          <t>136329</t>
         </is>
       </c>
       <c r="T49" s="2" t="inlineStr">
         <is>
-          <t>1298581</t>
+          <t>174090</t>
         </is>
       </c>
       <c r="U49" s="2" t="inlineStr">
         <is>
-          <t>13,35%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="V49" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="W49" s="2" t="inlineStr">
         <is>
-          <t>30,25%</t>
+          <t>12,14%</t>
         </is>
       </c>
     </row>
@@ -11760,107 +11760,107 @@
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>124948</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>218760</t>
+          <t>111499</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>380025</t>
+          <t>141183</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>15,57%</t>
+          <t>18,37%</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>18,26%</t>
+          <t>20,76%</t>
         </is>
       </c>
       <c r="J50" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>430</t>
         </is>
       </c>
       <c r="K50" s="2" t="inlineStr">
         <is>
-          <t>260080</t>
+          <t>169043</t>
         </is>
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>181671</t>
+          <t>153347</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>301910</t>
+          <t>185737</t>
         </is>
       </c>
       <c r="N50" s="2" t="inlineStr">
         <is>
-          <t>11,76%</t>
+          <t>22,43%</t>
         </is>
       </c>
       <c r="O50" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>20,35%</t>
         </is>
       </c>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>24,65%</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>730</t>
         </is>
       </c>
       <c r="R50" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>293991</t>
         </is>
       </c>
       <c r="S50" s="2" t="inlineStr">
         <is>
-          <t>463519</t>
+          <t>274676</t>
         </is>
       </c>
       <c r="T50" s="2" t="inlineStr">
         <is>
-          <t>660268</t>
+          <t>316642</t>
         </is>
       </c>
       <c r="U50" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>20,51%</t>
         </is>
       </c>
       <c r="V50" s="2" t="inlineStr">
         <is>
-          <t>10,8%</t>
+          <t>19,16%</t>
         </is>
       </c>
       <c r="W50" s="2" t="inlineStr">
         <is>
-          <t>15,38%</t>
+          <t>22,09%</t>
         </is>
       </c>
     </row>
@@ -11873,107 +11873,107 @@
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>601</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>205642</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>258826</t>
+          <t>189767</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>429326</t>
+          <t>224520</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>17,62%</t>
+          <t>30,24%</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>27,9%</t>
         </is>
       </c>
       <c r="I51" s="2" t="inlineStr">
         <is>
-          <t>20,63%</t>
+          <t>33,01%</t>
         </is>
       </c>
       <c r="J51" s="2" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>614</t>
         </is>
       </c>
       <c r="K51" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>210396</t>
         </is>
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>216491</t>
+          <t>193665</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
         <is>
-          <t>344089</t>
+          <t>227717</t>
         </is>
       </c>
       <c r="N51" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>27,92%</t>
         </is>
       </c>
       <c r="O51" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>25,7%</t>
         </is>
       </c>
       <c r="P51" s="2" t="inlineStr">
         <is>
-          <t>15,56%</t>
+          <t>30,22%</t>
         </is>
       </c>
       <c r="Q51" s="2" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>1215</t>
         </is>
       </c>
       <c r="R51" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>416039</t>
         </is>
       </c>
       <c r="S51" s="2" t="inlineStr">
         <is>
-          <t>532914</t>
+          <t>392905</t>
         </is>
       </c>
       <c r="T51" s="2" t="inlineStr">
         <is>
-          <t>749768</t>
+          <t>439514</t>
         </is>
       </c>
       <c r="U51" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>29,02%</t>
         </is>
       </c>
       <c r="V51" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>27,41%</t>
         </is>
       </c>
       <c r="W51" s="2" t="inlineStr">
         <is>
-          <t>17,47%</t>
+          <t>30,66%</t>
         </is>
       </c>
     </row>
@@ -11986,22 +11986,22 @@
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>1868</t>
+          <t>1636</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>2081289</t>
+          <t>680142</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>2081289</t>
+          <t>680142</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>2081289</t>
+          <t>680142</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
@@ -12021,22 +12021,22 @@
       </c>
       <c r="J52" s="2" t="inlineStr">
         <is>
-          <t>2968</t>
+          <t>1856</t>
         </is>
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
-          <t>2211225</t>
+          <t>753542</t>
         </is>
       </c>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>2211225</t>
+          <t>753542</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
         <is>
-          <t>2211225</t>
+          <t>753542</t>
         </is>
       </c>
       <c r="N52" s="2" t="inlineStr">
@@ -12056,22 +12056,22 @@
       </c>
       <c r="Q52" s="2" t="inlineStr">
         <is>
-          <t>4836</t>
+          <t>3492</t>
         </is>
       </c>
       <c r="R52" s="2" t="inlineStr">
         <is>
-          <t>4292514</t>
+          <t>1433684</t>
         </is>
       </c>
       <c r="S52" s="2" t="inlineStr">
         <is>
-          <t>4292514</t>
+          <t>1433684</t>
         </is>
       </c>
       <c r="T52" s="2" t="inlineStr">
         <is>
-          <t>4292514</t>
+          <t>1433684</t>
         </is>
       </c>
       <c r="U52" s="2" t="inlineStr">
@@ -17967,7 +17967,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Clase social de la persona entrevistada en Barcelona (tasa de respuesta: 99,43%)</t>
+          <t>Clase social de la persona entrevistada en País Vasco (tasa de respuesta: 97,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -18717,12 +18717,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>858</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>205642</t>
+          <t>163247</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -18752,12 +18752,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>880</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>210396</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -18787,12 +18787,12 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1215</t>
+          <t>1738</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>416039</t>
+          <t>332106</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
@@ -18830,22 +18830,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>858</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>205642</t>
+          <t>163247</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>205642</t>
+          <t>163247</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>205642</t>
+          <t>163247</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -18865,22 +18865,22 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>880</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>210396</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>210396</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>210396</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -18900,22 +18900,22 @@
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>1215</t>
+          <t>1738</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>416039</t>
+          <t>332106</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>416039</t>
+          <t>332106</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>416039</t>
+          <t>332106</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -19399,12 +19399,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>494</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -19434,12 +19434,12 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>675</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>169043</t>
+          <t>122956</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -19469,12 +19469,12 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>1169</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>293990</t>
+          <t>213381</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
@@ -19625,22 +19625,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>494</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -19660,22 +19660,22 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>675</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>169043</t>
+          <t>122956</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>169043</t>
+          <t>122956</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>169043</t>
+          <t>122956</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -19695,22 +19695,22 @@
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>1169</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>293990</t>
+          <t>213381</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>293990</t>
+          <t>213381</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>293990</t>
+          <t>213381</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -20081,12 +20081,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>923</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>96153</t>
+          <t>154094</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -20116,12 +20116,12 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>369</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>62155</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
@@ -20151,12 +20151,12 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>1292</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>153557</t>
+          <t>216249</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
@@ -20420,22 +20420,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>923</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>96153</t>
+          <t>154094</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>96153</t>
+          <t>154094</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>96153</t>
+          <t>154094</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -20455,22 +20455,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>369</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>62155</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>62155</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>62155</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -20490,22 +20490,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>1292</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>153557</t>
+          <t>216249</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>153557</t>
+          <t>216249</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>153557</t>
+          <t>216249</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -20763,12 +20763,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>163142</t>
+          <t>171536</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -20798,12 +20798,12 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>1049</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>158908</t>
+          <t>184027</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
@@ -20833,12 +20833,12 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>2059</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>322051</t>
+          <t>355563</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
@@ -21215,22 +21215,22 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>163142</t>
+          <t>171536</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>163142</t>
+          <t>171536</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>163142</t>
+          <t>171536</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -21250,22 +21250,22 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>1049</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>158908</t>
+          <t>184027</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>158908</t>
+          <t>184027</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>158908</t>
+          <t>184027</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -21285,22 +21285,22 @@
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>2059</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>322051</t>
+          <t>355563</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>322051</t>
+          <t>355563</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>322051</t>
+          <t>355563</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -21445,12 +21445,12 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>452</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>74738</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
@@ -21480,12 +21480,12 @@
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>746</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>94441</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
@@ -21515,12 +21515,12 @@
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>1198</t>
         </is>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>148150</t>
+          <t>200154</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
@@ -22010,22 +22010,22 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>452</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>74738</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>74738</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>74738</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -22045,22 +22045,22 @@
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>746</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>94441</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>94441</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>94441</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -22080,22 +22080,22 @@
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>1198</t>
         </is>
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>148150</t>
+          <t>200154</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>148150</t>
+          <t>200154</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>148150</t>
+          <t>200154</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
@@ -22127,12 +22127,12 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>56389</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
@@ -22162,12 +22162,12 @@
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>698</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>63350</t>
+          <t>123672</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
@@ -22197,12 +22197,12 @@
       </c>
       <c r="Q39" s="2" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>970</t>
         </is>
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>99897</t>
+          <t>180061</t>
         </is>
       </c>
       <c r="S39" s="2" t="inlineStr">
@@ -22805,22 +22805,22 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>56389</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>56389</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>56389</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
@@ -22840,22 +22840,22 @@
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>698</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>63350</t>
+          <t>123672</t>
         </is>
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>63350</t>
+          <t>123672</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
         <is>
-          <t>63350</t>
+          <t>123672</t>
         </is>
       </c>
       <c r="N45" s="2" t="inlineStr">
@@ -22875,22 +22875,22 @@
       </c>
       <c r="Q45" s="2" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>970</t>
         </is>
       </c>
       <c r="R45" s="2" t="inlineStr">
         <is>
-          <t>99897</t>
+          <t>180061</t>
         </is>
       </c>
       <c r="S45" s="2" t="inlineStr">
         <is>
-          <t>99897</t>
+          <t>180061</t>
         </is>
       </c>
       <c r="T45" s="2" t="inlineStr">
         <is>
-          <t>99897</t>
+          <t>180061</t>
         </is>
       </c>
       <c r="U45" s="2" t="inlineStr">
@@ -22922,107 +22922,107 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>56389</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>28063</t>
+          <t>49162</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>47386</t>
+          <t>63938</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="J46" s="2" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>698</t>
         </is>
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>63350</t>
+          <t>123672</t>
         </is>
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>53222</t>
+          <t>114942</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>76391</t>
+          <t>133026</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="O46" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>14,6%</t>
         </is>
       </c>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>16,9%</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>970</t>
         </is>
       </c>
       <c r="R46" s="2" t="inlineStr">
         <is>
-          <t>99897</t>
+          <t>180061</t>
         </is>
       </c>
       <c r="S46" s="2" t="inlineStr">
         <is>
-          <t>85076</t>
+          <t>169148</t>
         </is>
       </c>
       <c r="T46" s="2" t="inlineStr">
         <is>
-          <t>115548</t>
+          <t>192821</t>
         </is>
       </c>
       <c r="U46" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>12,02%</t>
         </is>
       </c>
       <c r="V46" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="W46" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>12,88%</t>
         </is>
       </c>
     </row>
@@ -23035,107 +23035,107 @@
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>452</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>74738</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>43693</t>
+          <t>68197</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>67019</t>
+          <t>82559</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="J47" s="2" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>746</t>
         </is>
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>94441</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>80138</t>
+          <t>116762</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>111903</t>
+          <t>133960</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
         <is>
-          <t>12,53%</t>
+          <t>15,93%</t>
         </is>
       </c>
       <c r="O47" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>14,83%</t>
         </is>
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>17,02%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>1198</t>
         </is>
       </c>
       <c r="R47" s="2" t="inlineStr">
         <is>
-          <t>148150</t>
+          <t>200154</t>
         </is>
       </c>
       <c r="S47" s="2" t="inlineStr">
         <is>
-          <t>130191</t>
+          <t>189506</t>
         </is>
       </c>
       <c r="T47" s="2" t="inlineStr">
         <is>
-          <t>167141</t>
+          <t>211285</t>
         </is>
       </c>
       <c r="U47" s="2" t="inlineStr">
         <is>
-          <t>10,33%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="V47" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="W47" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>14,11%</t>
         </is>
       </c>
     </row>
@@ -23148,107 +23148,107 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>163142</t>
+          <t>171536</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>145589</t>
+          <t>161915</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>182244</t>
+          <t>182099</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>23,99%</t>
+          <t>24,15%</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>21,41%</t>
+          <t>22,79%</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>26,8%</t>
+          <t>25,63%</t>
         </is>
       </c>
       <c r="J48" s="2" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>1049</t>
         </is>
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
-          <t>158908</t>
+          <t>184027</t>
         </is>
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>141943</t>
+          <t>174397</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>176813</t>
+          <t>194776</t>
         </is>
       </c>
       <c r="N48" s="2" t="inlineStr">
         <is>
-          <t>21,09%</t>
+          <t>23,38%</t>
         </is>
       </c>
       <c r="O48" s="2" t="inlineStr">
         <is>
-          <t>18,84%</t>
+          <t>22,16%</t>
         </is>
       </c>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>23,46%</t>
+          <t>24,75%</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>2059</t>
         </is>
       </c>
       <c r="R48" s="2" t="inlineStr">
         <is>
-          <t>322051</t>
+          <t>355563</t>
         </is>
       </c>
       <c r="S48" s="2" t="inlineStr">
         <is>
-          <t>296161</t>
+          <t>341109</t>
         </is>
       </c>
       <c r="T48" s="2" t="inlineStr">
         <is>
-          <t>347353</t>
+          <t>371448</t>
         </is>
       </c>
       <c r="U48" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>23,74%</t>
         </is>
       </c>
       <c r="V48" s="2" t="inlineStr">
         <is>
-          <t>20,66%</t>
+          <t>22,78%</t>
         </is>
       </c>
       <c r="W48" s="2" t="inlineStr">
         <is>
-          <t>24,23%</t>
+          <t>24,8%</t>
         </is>
       </c>
     </row>
@@ -23261,107 +23261,107 @@
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>923</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>96153</t>
+          <t>154094</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>83388</t>
+          <t>145090</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>110818</t>
+          <t>164700</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>21,69%</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>20,42%</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>16,29%</t>
+          <t>23,18%</t>
         </is>
       </c>
       <c r="J49" s="2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>369</t>
         </is>
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>62155</t>
         </is>
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>47209</t>
+          <t>56175</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>69986</t>
+          <t>69158</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="O49" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>1292</t>
         </is>
       </c>
       <c r="R49" s="2" t="inlineStr">
         <is>
-          <t>153557</t>
+          <t>216249</t>
         </is>
       </c>
       <c r="S49" s="2" t="inlineStr">
         <is>
-          <t>136329</t>
+          <t>204908</t>
         </is>
       </c>
       <c r="T49" s="2" t="inlineStr">
         <is>
-          <t>174090</t>
+          <t>229757</t>
         </is>
       </c>
       <c r="U49" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>14,44%</t>
         </is>
       </c>
       <c r="V49" s="2" t="inlineStr">
         <is>
-          <t>9,51%</t>
+          <t>13,68%</t>
         </is>
       </c>
       <c r="W49" s="2" t="inlineStr">
         <is>
-          <t>12,14%</t>
+          <t>15,34%</t>
         </is>
       </c>
     </row>
@@ -23374,107 +23374,107 @@
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>494</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>111499</t>
+          <t>82510</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>141183</t>
+          <t>99422</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>18,37%</t>
+          <t>12,73%</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>11,61%</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>13,99%</t>
         </is>
       </c>
       <c r="J50" s="2" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>675</t>
         </is>
       </c>
       <c r="K50" s="2" t="inlineStr">
         <is>
-          <t>169043</t>
+          <t>122956</t>
         </is>
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>153347</t>
+          <t>113858</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>185737</t>
+          <t>131811</t>
         </is>
       </c>
       <c r="N50" s="2" t="inlineStr">
         <is>
-          <t>22,43%</t>
+          <t>15,62%</t>
         </is>
       </c>
       <c r="O50" s="2" t="inlineStr">
         <is>
-          <t>20,35%</t>
+          <t>14,47%</t>
         </is>
       </c>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>24,65%</t>
+          <t>16,75%</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>1169</t>
         </is>
       </c>
       <c r="R50" s="2" t="inlineStr">
         <is>
-          <t>293991</t>
+          <t>213381</t>
         </is>
       </c>
       <c r="S50" s="2" t="inlineStr">
         <is>
-          <t>274676</t>
+          <t>201607</t>
         </is>
       </c>
       <c r="T50" s="2" t="inlineStr">
         <is>
-          <t>316642</t>
+          <t>225515</t>
         </is>
       </c>
       <c r="U50" s="2" t="inlineStr">
         <is>
-          <t>20,51%</t>
+          <t>14,25%</t>
         </is>
       </c>
       <c r="V50" s="2" t="inlineStr">
         <is>
-          <t>19,16%</t>
+          <t>13,46%</t>
         </is>
       </c>
       <c r="W50" s="2" t="inlineStr">
         <is>
-          <t>22,09%</t>
+          <t>15,06%</t>
         </is>
       </c>
     </row>
@@ -23487,107 +23487,107 @@
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>858</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>205642</t>
+          <t>163247</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>189767</t>
+          <t>152631</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>224520</t>
+          <t>172616</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>30,24%</t>
+          <t>22,98%</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>27,9%</t>
+          <t>21,48%</t>
         </is>
       </c>
       <c r="I51" s="2" t="inlineStr">
         <is>
-          <t>33,01%</t>
+          <t>24,3%</t>
         </is>
       </c>
       <c r="J51" s="2" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>880</t>
         </is>
       </c>
       <c r="K51" s="2" t="inlineStr">
         <is>
-          <t>210396</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>193665</t>
+          <t>158843</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
         <is>
-          <t>227717</t>
+          <t>179816</t>
         </is>
       </c>
       <c r="N51" s="2" t="inlineStr">
         <is>
-          <t>27,92%</t>
+          <t>21,45%</t>
         </is>
       </c>
       <c r="O51" s="2" t="inlineStr">
         <is>
-          <t>25,7%</t>
+          <t>20,18%</t>
         </is>
       </c>
       <c r="P51" s="2" t="inlineStr">
         <is>
-          <t>30,22%</t>
+          <t>22,85%</t>
         </is>
       </c>
       <c r="Q51" s="2" t="inlineStr">
         <is>
-          <t>1215</t>
+          <t>1738</t>
         </is>
       </c>
       <c r="R51" s="2" t="inlineStr">
         <is>
-          <t>416039</t>
+          <t>332106</t>
         </is>
       </c>
       <c r="S51" s="2" t="inlineStr">
         <is>
-          <t>392905</t>
+          <t>317413</t>
         </is>
       </c>
       <c r="T51" s="2" t="inlineStr">
         <is>
-          <t>439514</t>
+          <t>347088</t>
         </is>
       </c>
       <c r="U51" s="2" t="inlineStr">
         <is>
-          <t>29,02%</t>
+          <t>22,18%</t>
         </is>
       </c>
       <c r="V51" s="2" t="inlineStr">
         <is>
-          <t>27,41%</t>
+          <t>21,2%</t>
         </is>
       </c>
       <c r="W51" s="2" t="inlineStr">
         <is>
-          <t>30,66%</t>
+          <t>23,18%</t>
         </is>
       </c>
     </row>
@@ -23600,22 +23600,22 @@
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>1636</t>
+          <t>4009</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>680142</t>
+          <t>710429</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>680142</t>
+          <t>710429</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>680142</t>
+          <t>710429</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
@@ -23635,22 +23635,22 @@
       </c>
       <c r="J52" s="2" t="inlineStr">
         <is>
-          <t>1856</t>
+          <t>4417</t>
         </is>
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
-          <t>753542</t>
+          <t>787085</t>
         </is>
       </c>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>753542</t>
+          <t>787085</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
         <is>
-          <t>753542</t>
+          <t>787085</t>
         </is>
       </c>
       <c r="N52" s="2" t="inlineStr">
@@ -23670,22 +23670,22 @@
       </c>
       <c r="Q52" s="2" t="inlineStr">
         <is>
-          <t>3492</t>
+          <t>8426</t>
         </is>
       </c>
       <c r="R52" s="2" t="inlineStr">
         <is>
-          <t>1433684</t>
+          <t>1497515</t>
         </is>
       </c>
       <c r="S52" s="2" t="inlineStr">
         <is>
-          <t>1433684</t>
+          <t>1497515</t>
         </is>
       </c>
       <c r="T52" s="2" t="inlineStr">
         <is>
-          <t>1433684</t>
+          <t>1497515</t>
         </is>
       </c>
       <c r="U52" s="2" t="inlineStr">
